--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
-  <si>
-    <t>testCase</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+  <si>
+    <t>testcase</t>
   </si>
   <si>
     <t>description</t>
@@ -28,13 +28,16 @@
     <t>locator</t>
   </si>
   <si>
+    <t>attribute</t>
+  </si>
+  <si>
     <t>data</t>
   </si>
   <si>
     <t>TC1</t>
   </si>
   <si>
-    <t>launchBrowser</t>
+    <t>Launch the browser</t>
   </si>
   <si>
     <t>openBrowser</t>
@@ -43,10 +46,13 @@
     <t>NA</t>
   </si>
   <si>
+    <t>edge</t>
+  </si>
+  <si>
     <t>TC2</t>
   </si>
   <si>
-    <t>launchApp</t>
+    <t>Launch the application</t>
   </si>
   <si>
     <t>getURL</t>
@@ -58,13 +64,16 @@
     <t>TC3</t>
   </si>
   <si>
-    <t>enterUsername</t>
+    <t>Enter the username</t>
   </si>
   <si>
     <t>enterText</t>
   </si>
   <si>
-    <t>id=txtUsername</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>txtUsername</t>
   </si>
   <si>
     <t>Admin</t>
@@ -73,10 +82,10 @@
     <t>TC4</t>
   </si>
   <si>
-    <t>enterPassword</t>
-  </si>
-  <si>
-    <t>id=txtPassword</t>
+    <t>Enter the password</t>
+  </si>
+  <si>
+    <t>txtPassword</t>
   </si>
   <si>
     <t>admin123</t>
@@ -85,25 +94,52 @@
     <t>TC5</t>
   </si>
   <si>
-    <t>clickLogin</t>
+    <t>Click the login</t>
   </si>
   <si>
     <t>clickButton</t>
   </si>
   <si>
-    <t>id=btnLogin</t>
+    <t>btnLogin</t>
   </si>
   <si>
     <t>TC6</t>
   </si>
   <si>
-    <t>verifyWelcome</t>
+    <t>Verify the homepage</t>
   </si>
   <si>
     <t>verifyText</t>
   </si>
   <si>
-    <t>id=welcome</t>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
+    <t>Click the welcome</t>
+  </si>
+  <si>
+    <t>TC8</t>
+  </si>
+  <si>
+    <t>Click the logout</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>//a[text()='Logout']</t>
+  </si>
+  <si>
+    <t>TC9</t>
+  </si>
+  <si>
+    <t>Quit the browser</t>
+  </si>
+  <si>
+    <t>closeBrowser</t>
   </si>
 </sst>
 </file>
@@ -111,10 +147,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -125,6 +161,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -139,6 +183,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -147,18 +198,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,11 +230,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,8 +253,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -212,21 +292,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,36 +300,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,181 +320,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,17 +553,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,11 +571,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,156 +614,157 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1050,22 +1087,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" customWidth="1"/>
-    <col min="2" max="2" width="16.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="8.85714285714286" customWidth="1"/>
+    <col min="2" max="2" width="22.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="13.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="16.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="46.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="7.71428571428571" customWidth="1"/>
+    <col min="5" max="5" width="19.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="46.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1078,110 +1116,191 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
